--- a/assets/data/data.xlsx
+++ b/assets/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eho/Library/CloudStorage/Dropbox/Muristalden DB/SJ 22-23/22-23 9 Wissenschaftswoche/Daten und Datenbearbeitung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/353a691e1ea07a24/Documents/Wissenschaftswoche/bubbles-muristalden-main-alex/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23423E50-EC75-154F-AB19-B15172ED1439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{23423E50-EC75-154F-AB19-B15172ED1439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FD65DC7-91DB-41E7-A179-E310E2003420}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27060" xr2:uid="{D69983AE-9EDF-3646-8C8F-265A08494B66}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D69983AE-9EDF-3646-8C8F-265A08494B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="47">
   <si>
     <t>2h-3h</t>
   </si>
@@ -178,13 +178,16 @@
   <si>
     <t>informiert-yt</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;CHF&quot;;[Red]\-#,##0\ &quot;CHF&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;CHF&quot;;[Red]\-#,##0\ &quot;CHF&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -281,13 +284,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -303,7 +306,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -601,28 +604,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635402A8-EA80-DC4F-B160-AB1A802D8230}">
   <dimension ref="A1:W286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.69921875" customWidth="1"/>
     <col min="7" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="77.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="77.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="23" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="22" width="22.6640625" customWidth="1"/>
-    <col min="23" max="23" width="27.6640625" customWidth="1"/>
+    <col min="22" max="22" width="22.69921875" customWidth="1"/>
+    <col min="23" max="23" width="27.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -693,7 +696,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -765,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -837,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -909,7 +912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -981,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1157,8 +1160,8 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="1">
-        <v>1</v>
+      <c r="K8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -1197,7 +1200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1989,7 +1992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3285,7 +3288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3357,7 +3360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4005,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4077,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4149,7 +4152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4581,7 +4584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4725,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4797,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4869,7 +4872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4941,7 +4944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5013,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5085,7 +5088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5157,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5229,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5301,7 +5304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5373,7 +5376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5517,7 +5520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5589,7 +5592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5661,7 +5664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5733,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5805,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5949,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6021,7 +6024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6093,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6165,7 +6168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6237,7 +6240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6309,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6381,7 +6384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6453,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6525,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6597,7 +6600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -6669,7 +6672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -6741,7 +6744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6813,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -6885,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -6957,7 +6960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -7029,7 +7032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -7101,7 +7104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7173,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7245,7 +7248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -7317,7 +7320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7389,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -7461,7 +7464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -7533,7 +7536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -7605,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -7677,7 +7680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -7749,7 +7752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -7821,7 +7824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7893,7 +7896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -7965,7 +7968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -8037,7 +8040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -8109,7 +8112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -8181,7 +8184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -8253,7 +8256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -8325,7 +8328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -8397,7 +8400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -8469,7 +8472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -8541,7 +8544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -8613,7 +8616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -8685,7 +8688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -8757,7 +8760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -8829,7 +8832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -8901,7 +8904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -8973,7 +8976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -9045,7 +9048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -9117,7 +9120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -9189,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -9261,7 +9264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -9333,7 +9336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -9405,7 +9408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -9477,7 +9480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -9549,7 +9552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -9693,7 +9696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -9765,7 +9768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -9837,7 +9840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -9909,7 +9912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -9981,7 +9984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -10053,7 +10056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -10125,7 +10128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -10197,7 +10200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -10269,7 +10272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -10341,7 +10344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -10413,7 +10416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -10485,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -10557,7 +10560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -10629,7 +10632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -10701,7 +10704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -10773,7 +10776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -10845,7 +10848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -10917,7 +10920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -10989,7 +10992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -11061,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -11133,7 +11136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -11205,7 +11208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -11277,7 +11280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -11349,7 +11352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -11421,7 +11424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -11493,7 +11496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -11565,7 +11568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -11637,7 +11640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -11709,7 +11712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -11781,7 +11784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -11853,7 +11856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -11925,7 +11928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -11997,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -12069,7 +12072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -12141,7 +12144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -12213,7 +12216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -12285,7 +12288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -12357,7 +12360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -12429,7 +12432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -12501,7 +12504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -12573,7 +12576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -12645,7 +12648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -12717,7 +12720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -12789,7 +12792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -12861,7 +12864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -12933,7 +12936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -13005,7 +13008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -13077,7 +13080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -13149,7 +13152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -13221,7 +13224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -13293,7 +13296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -13365,7 +13368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -13437,7 +13440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -13509,7 +13512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -13581,7 +13584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -13653,7 +13656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -13725,7 +13728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -13797,7 +13800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -13869,7 +13872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -13941,7 +13944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -14013,7 +14016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -14085,7 +14088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -14157,7 +14160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -14229,7 +14232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -14301,7 +14304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -14373,7 +14376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -14445,7 +14448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -14517,7 +14520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -14589,7 +14592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -14661,7 +14664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -14733,7 +14736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -14805,7 +14808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -14877,7 +14880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -14949,7 +14952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -15021,7 +15024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -15093,7 +15096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -15165,7 +15168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -15237,7 +15240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -15309,7 +15312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -15381,7 +15384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -15453,7 +15456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -15525,7 +15528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -15597,7 +15600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -15669,7 +15672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -15741,7 +15744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -15813,7 +15816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -15885,7 +15888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -15957,7 +15960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -16029,7 +16032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -16101,7 +16104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -16173,7 +16176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -16245,7 +16248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -16317,7 +16320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -16389,7 +16392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -16461,7 +16464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -16533,7 +16536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -16605,7 +16608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -16677,7 +16680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -16749,7 +16752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -16821,7 +16824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -16893,7 +16896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -16965,7 +16968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -17037,7 +17040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -17109,7 +17112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -17181,7 +17184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -17253,7 +17256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -17325,7 +17328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -17397,7 +17400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -17469,7 +17472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -17541,7 +17544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -17613,7 +17616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -17685,7 +17688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -17757,7 +17760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -17829,7 +17832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -17901,7 +17904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -17973,7 +17976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -18045,7 +18048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -18117,7 +18120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -18189,7 +18192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -18261,7 +18264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -18333,7 +18336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -18405,7 +18408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -18477,7 +18480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -18549,7 +18552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -18621,7 +18624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -18693,7 +18696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -18765,7 +18768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -18837,7 +18840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -18909,7 +18912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -18981,7 +18984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -19053,7 +19056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -19125,7 +19128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -19197,7 +19200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -19269,7 +19272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -19341,7 +19344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -19413,7 +19416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -19485,7 +19488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -19557,7 +19560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -19629,7 +19632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -19701,7 +19704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -19773,7 +19776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -19845,7 +19848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -19917,7 +19920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -19989,7 +19992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -20061,7 +20064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -20133,7 +20136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -20205,7 +20208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -20277,7 +20280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -20349,7 +20352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -20421,7 +20424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -20493,7 +20496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -20565,7 +20568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -20637,7 +20640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -20709,7 +20712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -20781,7 +20784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -20853,7 +20856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -20925,7 +20928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -20997,7 +21000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -21069,7 +21072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -21141,7 +21144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>

--- a/assets/data/data.xlsx
+++ b/assets/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/353a691e1ea07a24/Documents/Wissenschaftswoche/bubbles-muristalden-main-alex/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{23423E50-EC75-154F-AB19-B15172ED1439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FD65DC7-91DB-41E7-A179-E310E2003420}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{23423E50-EC75-154F-AB19-B15172ED1439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56FBC97C-5A85-47C8-A8A7-8A39D4C67803}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D69983AE-9EDF-3646-8C8F-265A08494B66}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$P$286</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$Y$286</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="50">
   <si>
     <t>2h-3h</t>
   </si>
@@ -181,6 +181,15 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t>Weiss nicht</t>
+  </si>
+  <si>
+    <t>discordtext</t>
+  </si>
 </sst>
 </file>
 
@@ -236,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -272,11 +281,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -288,6 +310,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635402A8-EA80-DC4F-B160-AB1A802D8230}">
-  <dimension ref="A1:W286"/>
+  <dimension ref="A1:Y286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U286" sqref="U286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -625,7 +650,7 @@
     <col min="23" max="23" width="27.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -695,8 +720,14 @@
       <c r="W1" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -764,11 +795,17 @@
       <c r="V2" s="1">
         <v>1</v>
       </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W2" s="5">
+        <v>1</v>
+      </c>
+      <c r="X2" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -836,11 +873,17 @@
       <c r="V3" s="1">
         <v>1</v>
       </c>
-      <c r="W3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W3" s="5">
+        <v>2</v>
+      </c>
+      <c r="X3" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -908,11 +951,17 @@
       <c r="V4" s="1">
         <v>0</v>
       </c>
-      <c r="W4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W4" s="5">
+        <v>3</v>
+      </c>
+      <c r="X4" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -980,11 +1029,17 @@
       <c r="V5" s="1">
         <v>1</v>
       </c>
-      <c r="W5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W5" s="5">
+        <v>1</v>
+      </c>
+      <c r="X5" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1052,11 +1107,17 @@
       <c r="V6" s="1">
         <v>1</v>
       </c>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W6" s="5">
+        <v>1</v>
+      </c>
+      <c r="X6" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1124,11 +1185,17 @@
       <c r="V7" s="1">
         <v>1</v>
       </c>
-      <c r="W7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W7" s="5">
+        <v>1</v>
+      </c>
+      <c r="X7" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1196,11 +1263,17 @@
       <c r="V8" s="1">
         <v>1</v>
       </c>
-      <c r="W8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W8" s="5">
+        <v>2</v>
+      </c>
+      <c r="X8" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1268,11 +1341,17 @@
       <c r="V9" s="1">
         <v>1</v>
       </c>
-      <c r="W9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W9" s="5">
+        <v>1</v>
+      </c>
+      <c r="X9" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1340,11 +1419,17 @@
       <c r="V10" s="1">
         <v>1</v>
       </c>
-      <c r="W10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W10" s="5">
+        <v>2</v>
+      </c>
+      <c r="X10" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1412,11 +1497,17 @@
       <c r="V11" s="1">
         <v>1</v>
       </c>
-      <c r="W11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W11" s="5">
+        <v>2</v>
+      </c>
+      <c r="X11" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1484,11 +1575,17 @@
       <c r="V12" s="1">
         <v>1</v>
       </c>
-      <c r="W12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W12" s="5">
+        <v>2</v>
+      </c>
+      <c r="X12" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1556,11 +1653,17 @@
       <c r="V13" s="1">
         <v>0</v>
       </c>
-      <c r="W13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W13" s="5">
+        <v>4</v>
+      </c>
+      <c r="X13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1628,11 +1731,17 @@
       <c r="V14" s="1">
         <v>1</v>
       </c>
-      <c r="W14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W14" s="5">
+        <v>2</v>
+      </c>
+      <c r="X14" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1700,11 +1809,17 @@
       <c r="V15" s="1">
         <v>1</v>
       </c>
-      <c r="W15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W15" s="5">
+        <v>2</v>
+      </c>
+      <c r="X15" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1772,11 +1887,17 @@
       <c r="V16" s="1">
         <v>1</v>
       </c>
-      <c r="W16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W16" s="5">
+        <v>1</v>
+      </c>
+      <c r="X16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1844,11 +1965,17 @@
       <c r="V17" s="1">
         <v>0</v>
       </c>
-      <c r="W17" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W17" s="5">
+        <v>4</v>
+      </c>
+      <c r="X17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1916,11 +2043,17 @@
       <c r="V18" s="1">
         <v>1</v>
       </c>
-      <c r="W18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W18" s="5">
+        <v>1</v>
+      </c>
+      <c r="X18" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1988,11 +2121,17 @@
       <c r="V19" s="1">
         <v>1</v>
       </c>
-      <c r="W19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W19" s="5">
+        <v>2</v>
+      </c>
+      <c r="X19" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2060,11 +2199,17 @@
       <c r="V20" s="1">
         <v>1</v>
       </c>
-      <c r="W20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W20" s="5">
+        <v>1</v>
+      </c>
+      <c r="X20" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2132,11 +2277,17 @@
       <c r="V21" s="1">
         <v>1</v>
       </c>
-      <c r="W21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W21" s="5">
+        <v>1</v>
+      </c>
+      <c r="X21" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2204,11 +2355,17 @@
       <c r="V22" s="1">
         <v>0</v>
       </c>
-      <c r="W22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W22" s="5">
+        <v>3</v>
+      </c>
+      <c r="X22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2276,11 +2433,17 @@
       <c r="V23" s="1">
         <v>0</v>
       </c>
-      <c r="W23" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W23" s="5">
+        <v>3</v>
+      </c>
+      <c r="X23" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2348,11 +2511,17 @@
       <c r="V24" s="1">
         <v>1</v>
       </c>
-      <c r="W24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W24" s="5">
+        <v>1</v>
+      </c>
+      <c r="X24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2420,11 +2589,17 @@
       <c r="V25" s="1">
         <v>1</v>
       </c>
-      <c r="W25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W25" s="5">
+        <v>1</v>
+      </c>
+      <c r="X25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2492,11 +2667,17 @@
       <c r="V26" s="1">
         <v>1</v>
       </c>
-      <c r="W26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W26" s="5">
+        <v>2</v>
+      </c>
+      <c r="X26" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2564,11 +2745,17 @@
       <c r="V27" s="1">
         <v>1</v>
       </c>
-      <c r="W27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W27" s="5">
+        <v>2</v>
+      </c>
+      <c r="X27" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2636,11 +2823,17 @@
       <c r="V28" s="1">
         <v>1</v>
       </c>
-      <c r="W28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W28" s="5">
+        <v>1</v>
+      </c>
+      <c r="X28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2708,11 +2901,17 @@
       <c r="V29" s="1">
         <v>1</v>
       </c>
-      <c r="W29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W29" s="5">
+        <v>2</v>
+      </c>
+      <c r="X29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2780,11 +2979,17 @@
       <c r="V30" s="1">
         <v>1</v>
       </c>
-      <c r="W30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W30" s="5">
+        <v>2</v>
+      </c>
+      <c r="X30" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2852,11 +3057,17 @@
       <c r="V31" s="1">
         <v>0</v>
       </c>
-      <c r="W31" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W31" s="5">
+        <v>4</v>
+      </c>
+      <c r="X31" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y31" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2924,11 +3135,17 @@
       <c r="V32" s="1">
         <v>0</v>
       </c>
-      <c r="W32" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W32" s="5">
+        <v>4</v>
+      </c>
+      <c r="X32" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2996,11 +3213,17 @@
       <c r="V33" s="1">
         <v>1</v>
       </c>
-      <c r="W33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W33" s="5">
+        <v>1</v>
+      </c>
+      <c r="X33" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3068,11 +3291,17 @@
       <c r="V34" s="1">
         <v>0</v>
       </c>
-      <c r="W34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W34" s="5">
+        <v>3</v>
+      </c>
+      <c r="X34" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3140,11 +3369,17 @@
       <c r="V35" s="1">
         <v>1</v>
       </c>
-      <c r="W35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W35" s="5">
+        <v>2</v>
+      </c>
+      <c r="X35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3212,11 +3447,17 @@
       <c r="V36" s="1">
         <v>1</v>
       </c>
-      <c r="W36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W36" s="5">
+        <v>2</v>
+      </c>
+      <c r="X36" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3284,11 +3525,17 @@
       <c r="V37" s="1">
         <v>0</v>
       </c>
-      <c r="W37" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W37" s="5">
+        <v>4</v>
+      </c>
+      <c r="X37" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3356,11 +3603,17 @@
       <c r="V38" s="1">
         <v>1</v>
       </c>
-      <c r="W38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W38" s="5">
+        <v>2</v>
+      </c>
+      <c r="X38" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3428,11 +3681,17 @@
       <c r="V39" s="1">
         <v>0</v>
       </c>
-      <c r="W39" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W39" s="5">
+        <v>4</v>
+      </c>
+      <c r="X39" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3500,11 +3759,17 @@
       <c r="V40" s="1">
         <v>1</v>
       </c>
-      <c r="W40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W40" s="5">
+        <v>1</v>
+      </c>
+      <c r="X40" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y40" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3572,11 +3837,17 @@
       <c r="V41" s="1">
         <v>1</v>
       </c>
-      <c r="W41" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W41" s="5">
+        <v>2</v>
+      </c>
+      <c r="X41" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3644,11 +3915,17 @@
       <c r="V42" s="1">
         <v>1</v>
       </c>
-      <c r="W42" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W42" s="5">
+        <v>2</v>
+      </c>
+      <c r="X42" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3716,11 +3993,17 @@
       <c r="V43" s="1">
         <v>1</v>
       </c>
-      <c r="W43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W43" s="5">
+        <v>1</v>
+      </c>
+      <c r="X43" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3788,11 +4071,17 @@
       <c r="V44" s="1">
         <v>1</v>
       </c>
-      <c r="W44" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W44" s="5">
+        <v>2</v>
+      </c>
+      <c r="X44" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3860,11 +4149,17 @@
       <c r="V45" s="1">
         <v>1</v>
       </c>
-      <c r="W45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W45" s="5">
+        <v>1</v>
+      </c>
+      <c r="X45" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3932,11 +4227,17 @@
       <c r="V46" s="1">
         <v>1</v>
       </c>
-      <c r="W46" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W46" s="5">
+        <v>2</v>
+      </c>
+      <c r="X46" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4004,11 +4305,17 @@
       <c r="V47" s="1">
         <v>1</v>
       </c>
-      <c r="W47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W47" s="5">
+        <v>1</v>
+      </c>
+      <c r="X47" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4076,11 +4383,17 @@
       <c r="V48" s="1">
         <v>1</v>
       </c>
-      <c r="W48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W48" s="5">
+        <v>1</v>
+      </c>
+      <c r="X48" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4148,11 +4461,17 @@
       <c r="V49" s="1">
         <v>0</v>
       </c>
-      <c r="W49" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W49" s="5">
+        <v>4</v>
+      </c>
+      <c r="X49" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y49" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4220,11 +4539,17 @@
       <c r="V50" s="1">
         <v>1</v>
       </c>
-      <c r="W50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W50" s="5">
+        <v>1</v>
+      </c>
+      <c r="X50" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4292,11 +4617,17 @@
       <c r="V51" s="1">
         <v>1</v>
       </c>
-      <c r="W51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W51" s="5">
+        <v>2</v>
+      </c>
+      <c r="X51" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y51" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4364,11 +4695,17 @@
       <c r="V52" s="1">
         <v>1</v>
       </c>
-      <c r="W52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W52" s="5">
+        <v>1</v>
+      </c>
+      <c r="X52" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4436,11 +4773,17 @@
       <c r="V53" s="1">
         <v>1</v>
       </c>
-      <c r="W53" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W53" s="5">
+        <v>2</v>
+      </c>
+      <c r="X53" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4508,11 +4851,17 @@
       <c r="V54" s="1">
         <v>1</v>
       </c>
-      <c r="W54" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W54" s="5">
+        <v>2</v>
+      </c>
+      <c r="X54" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4580,11 +4929,17 @@
       <c r="V55" s="1">
         <v>1</v>
       </c>
-      <c r="W55" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W55" s="5">
+        <v>2</v>
+      </c>
+      <c r="X55" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y55" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4652,11 +5007,17 @@
       <c r="V56" s="1">
         <v>1</v>
       </c>
-      <c r="W56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W56" s="5">
+        <v>1</v>
+      </c>
+      <c r="X56" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4724,11 +5085,17 @@
       <c r="V57" s="1">
         <v>1</v>
       </c>
-      <c r="W57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W57" s="5">
+        <v>1</v>
+      </c>
+      <c r="X57" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4796,11 +5163,17 @@
       <c r="V58" s="1">
         <v>1</v>
       </c>
-      <c r="W58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W58" s="5">
+        <v>1</v>
+      </c>
+      <c r="X58" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y58" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4868,11 +5241,17 @@
       <c r="V59" s="1">
         <v>1</v>
       </c>
-      <c r="W59" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W59" s="5">
+        <v>2</v>
+      </c>
+      <c r="X59" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4940,11 +5319,17 @@
       <c r="V60" s="1">
         <v>1</v>
       </c>
-      <c r="W60" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W60" s="5">
+        <v>2</v>
+      </c>
+      <c r="X60" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5012,11 +5397,17 @@
       <c r="V61" s="1">
         <v>1</v>
       </c>
-      <c r="W61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W61" s="5">
+        <v>1</v>
+      </c>
+      <c r="X61" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5084,11 +5475,17 @@
       <c r="V62" s="1">
         <v>0</v>
       </c>
-      <c r="W62" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W62" s="5">
+        <v>3</v>
+      </c>
+      <c r="X62" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y62" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5156,11 +5553,17 @@
       <c r="V63" s="1">
         <v>1</v>
       </c>
-      <c r="W63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W63" s="5">
+        <v>1</v>
+      </c>
+      <c r="X63" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5228,11 +5631,17 @@
       <c r="V64" s="1">
         <v>1</v>
       </c>
-      <c r="W64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W64" s="5">
+        <v>1</v>
+      </c>
+      <c r="X64" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y64" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5300,11 +5709,17 @@
       <c r="V65" s="1">
         <v>1</v>
       </c>
-      <c r="W65" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W65" s="5">
+        <v>2</v>
+      </c>
+      <c r="X65" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y65" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5372,11 +5787,17 @@
       <c r="V66" s="1">
         <v>0</v>
       </c>
-      <c r="W66" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W66" s="5">
+        <v>3</v>
+      </c>
+      <c r="X66" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y66" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5444,11 +5865,17 @@
       <c r="V67" s="1">
         <v>0</v>
       </c>
-      <c r="W67" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W67" s="5">
+        <v>4</v>
+      </c>
+      <c r="X67" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y67" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5516,11 +5943,17 @@
       <c r="V68" s="1">
         <v>0</v>
       </c>
-      <c r="W68" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W68" s="5">
+        <v>4</v>
+      </c>
+      <c r="X68" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5588,11 +6021,17 @@
       <c r="V69" s="1">
         <v>0</v>
       </c>
-      <c r="W69" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W69" s="5">
+        <v>3</v>
+      </c>
+      <c r="X69" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5660,11 +6099,17 @@
       <c r="V70" s="1">
         <v>0</v>
       </c>
-      <c r="W70" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W70" s="5">
+        <v>4</v>
+      </c>
+      <c r="X70" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y70" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5732,11 +6177,17 @@
       <c r="V71" s="1">
         <v>1</v>
       </c>
-      <c r="W71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W71" s="5">
+        <v>1</v>
+      </c>
+      <c r="X71" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5804,11 +6255,17 @@
       <c r="V72" s="1">
         <v>1</v>
       </c>
-      <c r="W72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W72" s="5">
+        <v>1</v>
+      </c>
+      <c r="X72" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5876,11 +6333,17 @@
       <c r="V73" s="1">
         <v>0</v>
       </c>
-      <c r="W73" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W73" s="5">
+        <v>3</v>
+      </c>
+      <c r="X73" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5948,11 +6411,17 @@
       <c r="V74" s="1">
         <v>1</v>
       </c>
-      <c r="W74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W74" s="5">
+        <v>1</v>
+      </c>
+      <c r="X74" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6020,11 +6489,17 @@
       <c r="V75" s="1">
         <v>0</v>
       </c>
-      <c r="W75" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W75" s="5">
+        <v>3</v>
+      </c>
+      <c r="X75" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6092,11 +6567,17 @@
       <c r="V76" s="1">
         <v>1</v>
       </c>
-      <c r="W76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W76" s="5">
+        <v>1</v>
+      </c>
+      <c r="X76" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6164,11 +6645,17 @@
       <c r="V77" s="1">
         <v>0</v>
       </c>
-      <c r="W77" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W77" s="5">
+        <v>3</v>
+      </c>
+      <c r="X77" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6236,11 +6723,17 @@
       <c r="V78" s="1">
         <v>1</v>
       </c>
-      <c r="W78" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W78" s="5">
+        <v>2</v>
+      </c>
+      <c r="X78" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6308,11 +6801,17 @@
       <c r="V79" s="1">
         <v>1</v>
       </c>
-      <c r="W79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W79" s="5">
+        <v>1</v>
+      </c>
+      <c r="X79" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6380,11 +6879,17 @@
       <c r="V80" s="1">
         <v>1</v>
       </c>
-      <c r="W80" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W80" s="5">
+        <v>2</v>
+      </c>
+      <c r="X80" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6452,11 +6957,17 @@
       <c r="V81" s="1">
         <v>1</v>
       </c>
-      <c r="W81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W81" s="5">
+        <v>1</v>
+      </c>
+      <c r="X81" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6524,11 +7035,17 @@
       <c r="V82" s="1">
         <v>1</v>
       </c>
-      <c r="W82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W82" s="5">
+        <v>1</v>
+      </c>
+      <c r="X82" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6596,11 +7113,17 @@
       <c r="V83" s="1">
         <v>0</v>
       </c>
-      <c r="W83" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W83" s="5">
+        <v>4</v>
+      </c>
+      <c r="X83" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -6668,11 +7191,17 @@
       <c r="V84" s="1">
         <v>1</v>
       </c>
-      <c r="W84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W84" s="5">
+        <v>1</v>
+      </c>
+      <c r="X84" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y84" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -6740,11 +7269,17 @@
       <c r="V85" s="1">
         <v>0</v>
       </c>
-      <c r="W85" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W85" s="5">
+        <v>3</v>
+      </c>
+      <c r="X85" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6812,11 +7347,17 @@
       <c r="V86" s="1">
         <v>1</v>
       </c>
-      <c r="W86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W86" s="5">
+        <v>1</v>
+      </c>
+      <c r="X86" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -6884,11 +7425,17 @@
       <c r="V87" s="1">
         <v>1</v>
       </c>
-      <c r="W87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W87" s="5">
+        <v>1</v>
+      </c>
+      <c r="X87" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y87" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -6956,11 +7503,17 @@
       <c r="V88" s="1">
         <v>1</v>
       </c>
-      <c r="W88" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W88" s="5">
+        <v>1</v>
+      </c>
+      <c r="X88" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -7028,11 +7581,17 @@
       <c r="V89" s="1">
         <v>0</v>
       </c>
-      <c r="W89" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W89" s="5">
+        <v>3</v>
+      </c>
+      <c r="X89" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -7100,11 +7659,17 @@
       <c r="V90" s="1">
         <v>1</v>
       </c>
-      <c r="W90" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W90" s="5">
+        <v>1</v>
+      </c>
+      <c r="X90" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y90" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7172,11 +7737,17 @@
       <c r="V91" s="1">
         <v>1</v>
       </c>
-      <c r="W91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W91" s="5">
+        <v>1</v>
+      </c>
+      <c r="X91" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7244,11 +7815,17 @@
       <c r="V92" s="1">
         <v>1</v>
       </c>
-      <c r="W92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W92" s="5">
+        <v>1</v>
+      </c>
+      <c r="X92" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -7316,11 +7893,17 @@
       <c r="V93" s="1">
         <v>0</v>
       </c>
-      <c r="W93" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W93" s="5">
+        <v>3</v>
+      </c>
+      <c r="X93" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7388,11 +7971,17 @@
       <c r="V94" s="1">
         <v>1</v>
       </c>
-      <c r="W94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W94" s="5">
+        <v>1</v>
+      </c>
+      <c r="X94" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y94" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -7460,11 +8049,17 @@
       <c r="V95" s="1">
         <v>1</v>
       </c>
-      <c r="W95" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W95" s="5">
+        <v>2</v>
+      </c>
+      <c r="X95" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -7532,11 +8127,17 @@
       <c r="V96" s="1">
         <v>0</v>
       </c>
-      <c r="W96" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W96" s="5">
+        <v>3</v>
+      </c>
+      <c r="X96" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -7604,11 +8205,17 @@
       <c r="V97" s="1">
         <v>1</v>
       </c>
-      <c r="W97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W97" s="5">
+        <v>1</v>
+      </c>
+      <c r="X97" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y97" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -7676,11 +8283,17 @@
       <c r="V98" s="1">
         <v>0</v>
       </c>
-      <c r="W98" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W98" s="5">
+        <v>4</v>
+      </c>
+      <c r="X98" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y98" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -7748,11 +8361,17 @@
       <c r="V99" s="1">
         <v>0</v>
       </c>
-      <c r="W99" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W99" s="5">
+        <v>4</v>
+      </c>
+      <c r="X99" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y99" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -7820,11 +8439,17 @@
       <c r="V100" s="1">
         <v>1</v>
       </c>
-      <c r="W100" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W100" s="5">
+        <v>1</v>
+      </c>
+      <c r="X100" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y100" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7892,11 +8517,17 @@
       <c r="V101" s="1">
         <v>1</v>
       </c>
-      <c r="W101" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W101" s="5">
+        <v>2</v>
+      </c>
+      <c r="X101" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y101" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -7964,11 +8595,17 @@
       <c r="V102" s="1">
         <v>1</v>
       </c>
-      <c r="W102" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W102" s="5">
+        <v>2</v>
+      </c>
+      <c r="X102" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y102" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -8036,11 +8673,17 @@
       <c r="V103" s="1">
         <v>0</v>
       </c>
-      <c r="W103" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W103" s="5">
+        <v>3</v>
+      </c>
+      <c r="X103" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y103" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -8108,11 +8751,17 @@
       <c r="V104" s="1">
         <v>0</v>
       </c>
-      <c r="W104" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W104" s="5">
+        <v>4</v>
+      </c>
+      <c r="X104" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -8180,11 +8829,17 @@
       <c r="V105" s="1">
         <v>1</v>
       </c>
-      <c r="W105" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W105" s="5">
+        <v>2</v>
+      </c>
+      <c r="X105" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y105" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -8252,11 +8907,17 @@
       <c r="V106" s="1">
         <v>0</v>
       </c>
-      <c r="W106" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W106" s="5">
+        <v>4</v>
+      </c>
+      <c r="X106" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y106" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -8324,11 +8985,17 @@
       <c r="V107" s="1">
         <v>0</v>
       </c>
-      <c r="W107" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W107" s="5">
+        <v>3</v>
+      </c>
+      <c r="X107" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y107" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -8396,11 +9063,17 @@
       <c r="V108" s="1">
         <v>1</v>
       </c>
-      <c r="W108" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W108" s="5">
+        <v>1</v>
+      </c>
+      <c r="X108" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -8468,11 +9141,17 @@
       <c r="V109" s="1">
         <v>1</v>
       </c>
-      <c r="W109" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W109" s="5">
+        <v>2</v>
+      </c>
+      <c r="X109" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y109" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -8540,11 +9219,17 @@
       <c r="V110" s="1">
         <v>0</v>
       </c>
-      <c r="W110" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W110" s="5">
+        <v>4</v>
+      </c>
+      <c r="X110" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y110" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -8612,11 +9297,17 @@
       <c r="V111" s="1">
         <v>0</v>
       </c>
-      <c r="W111" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W111" s="5">
+        <v>4</v>
+      </c>
+      <c r="X111" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -8684,11 +9375,17 @@
       <c r="V112" s="1">
         <v>0</v>
       </c>
-      <c r="W112" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W112" s="5">
+        <v>4</v>
+      </c>
+      <c r="X112" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y112" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -8756,11 +9453,17 @@
       <c r="V113" s="1">
         <v>1</v>
       </c>
-      <c r="W113" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W113" s="5">
+        <v>2</v>
+      </c>
+      <c r="X113" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -8828,11 +9531,17 @@
       <c r="V114" s="1">
         <v>1</v>
       </c>
-      <c r="W114" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W114" s="5">
+        <v>2</v>
+      </c>
+      <c r="X114" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y114" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -8900,11 +9609,17 @@
       <c r="V115" s="1">
         <v>1</v>
       </c>
-      <c r="W115" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W115" s="5">
+        <v>2</v>
+      </c>
+      <c r="X115" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -8972,11 +9687,17 @@
       <c r="V116" s="1">
         <v>0</v>
       </c>
-      <c r="W116" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W116" s="5">
+        <v>4</v>
+      </c>
+      <c r="X116" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y116" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -9044,11 +9765,17 @@
       <c r="V117" s="1">
         <v>0</v>
       </c>
-      <c r="W117" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W117" s="5">
+        <v>4</v>
+      </c>
+      <c r="X117" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y117" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -9116,11 +9843,17 @@
       <c r="V118" s="1">
         <v>1</v>
       </c>
-      <c r="W118" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W118" s="5">
+        <v>2</v>
+      </c>
+      <c r="X118" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y118" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -9188,11 +9921,17 @@
       <c r="V119" s="1">
         <v>1</v>
       </c>
-      <c r="W119" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W119" s="5">
+        <v>1</v>
+      </c>
+      <c r="X119" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y119" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -9260,11 +9999,17 @@
       <c r="V120" s="1">
         <v>1</v>
       </c>
-      <c r="W120" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W120" s="5">
+        <v>1</v>
+      </c>
+      <c r="X120" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y120" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -9332,11 +10077,17 @@
       <c r="V121" s="1">
         <v>0</v>
       </c>
-      <c r="W121" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W121" s="5">
+        <v>3</v>
+      </c>
+      <c r="X121" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y121" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -9404,11 +10155,17 @@
       <c r="V122" s="1">
         <v>0</v>
       </c>
-      <c r="W122" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W122" s="5">
+        <v>4</v>
+      </c>
+      <c r="X122" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y122" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -9476,11 +10233,17 @@
       <c r="V123" s="1">
         <v>0</v>
       </c>
-      <c r="W123" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W123" s="5">
+        <v>4</v>
+      </c>
+      <c r="X123" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y123" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -9548,11 +10311,17 @@
       <c r="V124" s="1">
         <v>1</v>
       </c>
-      <c r="W124" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W124" s="5">
+        <v>2</v>
+      </c>
+      <c r="X124" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -9620,11 +10389,17 @@
       <c r="V125" s="1">
         <v>0</v>
       </c>
-      <c r="W125" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W125" s="5">
+        <v>4</v>
+      </c>
+      <c r="X125" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y125" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -9692,11 +10467,17 @@
       <c r="V126" s="1">
         <v>0</v>
       </c>
-      <c r="W126" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W126" s="5">
+        <v>3</v>
+      </c>
+      <c r="X126" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y126" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -9764,11 +10545,17 @@
       <c r="V127" s="1">
         <v>0</v>
       </c>
-      <c r="W127" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W127" s="5">
+        <v>4</v>
+      </c>
+      <c r="X127" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y127" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -9836,11 +10623,17 @@
       <c r="V128" s="1">
         <v>1</v>
       </c>
-      <c r="W128" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W128" s="5">
+        <v>2</v>
+      </c>
+      <c r="X128" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y128" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -9908,11 +10701,17 @@
       <c r="V129" s="1">
         <v>1</v>
       </c>
-      <c r="W129" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W129" s="5">
+        <v>2</v>
+      </c>
+      <c r="X129" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -9980,11 +10779,17 @@
       <c r="V130" s="1">
         <v>1</v>
       </c>
-      <c r="W130" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W130" s="5">
+        <v>1</v>
+      </c>
+      <c r="X130" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y130" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -10052,11 +10857,17 @@
       <c r="V131" s="1">
         <v>1</v>
       </c>
-      <c r="W131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W131" s="5">
+        <v>1</v>
+      </c>
+      <c r="X131" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y131" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -10124,11 +10935,17 @@
       <c r="V132" s="1">
         <v>1</v>
       </c>
-      <c r="W132" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W132" s="5">
+        <v>2</v>
+      </c>
+      <c r="X132" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y132" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -10196,11 +11013,17 @@
       <c r="V133" s="1">
         <v>1</v>
       </c>
-      <c r="W133" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W133" s="5">
+        <v>1</v>
+      </c>
+      <c r="X133" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y133" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -10268,11 +11091,17 @@
       <c r="V134" s="1">
         <v>0</v>
       </c>
-      <c r="W134" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W134" s="5">
+        <v>4</v>
+      </c>
+      <c r="X134" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -10340,11 +11169,17 @@
       <c r="V135" s="1">
         <v>0</v>
       </c>
-      <c r="W135" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W135" s="5">
+        <v>3</v>
+      </c>
+      <c r="X135" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -10412,11 +11247,17 @@
       <c r="V136" s="1">
         <v>1</v>
       </c>
-      <c r="W136" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W136" s="5">
+        <v>2</v>
+      </c>
+      <c r="X136" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -10484,11 +11325,17 @@
       <c r="V137" s="1">
         <v>1</v>
       </c>
-      <c r="W137" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W137" s="5">
+        <v>1</v>
+      </c>
+      <c r="X137" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y137" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -10556,11 +11403,17 @@
       <c r="V138" s="1">
         <v>1</v>
       </c>
-      <c r="W138" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W138" s="5">
+        <v>2</v>
+      </c>
+      <c r="X138" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y138" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -10628,11 +11481,17 @@
       <c r="V139" s="1">
         <v>1</v>
       </c>
-      <c r="W139" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W139" s="5">
+        <v>2</v>
+      </c>
+      <c r="X139" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y139" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -10700,11 +11559,17 @@
       <c r="V140" s="1">
         <v>0</v>
       </c>
-      <c r="W140" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W140" s="5">
+        <v>4</v>
+      </c>
+      <c r="X140" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y140" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -10772,11 +11637,17 @@
       <c r="V141" s="1">
         <v>0</v>
       </c>
-      <c r="W141" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W141" s="5">
+        <v>4</v>
+      </c>
+      <c r="X141" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y141" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -10844,11 +11715,17 @@
       <c r="V142" s="1">
         <v>0</v>
       </c>
-      <c r="W142" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W142" s="5">
+        <v>3</v>
+      </c>
+      <c r="X142" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y142" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -10916,11 +11793,17 @@
       <c r="V143" s="1">
         <v>1</v>
       </c>
-      <c r="W143" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W143" s="5">
+        <v>1</v>
+      </c>
+      <c r="X143" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y143" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -10988,11 +11871,17 @@
       <c r="V144" s="1">
         <v>0</v>
       </c>
-      <c r="W144" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W144" s="5">
+        <v>3</v>
+      </c>
+      <c r="X144" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y144" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -11060,11 +11949,17 @@
       <c r="V145" s="1">
         <v>1</v>
       </c>
-      <c r="W145" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W145" s="5">
+        <v>1</v>
+      </c>
+      <c r="X145" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y145" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -11132,11 +12027,17 @@
       <c r="V146" s="1">
         <v>1</v>
       </c>
-      <c r="W146" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W146" s="5">
+        <v>1</v>
+      </c>
+      <c r="X146" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y146" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -11204,11 +12105,17 @@
       <c r="V147" s="1">
         <v>0</v>
       </c>
-      <c r="W147" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W147" s="5">
+        <v>4</v>
+      </c>
+      <c r="X147" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y147" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -11276,11 +12183,17 @@
       <c r="V148" s="1">
         <v>1</v>
       </c>
-      <c r="W148" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W148" s="5">
+        <v>1</v>
+      </c>
+      <c r="X148" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y148" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -11348,11 +12261,17 @@
       <c r="V149" s="1">
         <v>1</v>
       </c>
-      <c r="W149" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W149" s="5">
+        <v>2</v>
+      </c>
+      <c r="X149" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y149" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -11420,11 +12339,17 @@
       <c r="V150" s="1">
         <v>0</v>
       </c>
-      <c r="W150" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W150" s="5">
+        <v>4</v>
+      </c>
+      <c r="X150" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y150" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -11492,11 +12417,17 @@
       <c r="V151" s="1">
         <v>1</v>
       </c>
-      <c r="W151" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W151" s="5">
+        <v>1</v>
+      </c>
+      <c r="X151" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y151" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -11564,11 +12495,17 @@
       <c r="V152" s="1">
         <v>0</v>
       </c>
-      <c r="W152" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W152" s="5">
+        <v>3</v>
+      </c>
+      <c r="X152" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y152" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -11636,11 +12573,17 @@
       <c r="V153" s="1">
         <v>0</v>
       </c>
-      <c r="W153" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W153" s="5">
+        <v>3</v>
+      </c>
+      <c r="X153" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y153" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -11708,11 +12651,17 @@
       <c r="V154" s="1">
         <v>1</v>
       </c>
-      <c r="W154" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W154" s="5">
+        <v>2</v>
+      </c>
+      <c r="X154" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y154" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -11780,11 +12729,17 @@
       <c r="V155" s="1">
         <v>0</v>
       </c>
-      <c r="W155" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W155" s="5">
+        <v>3</v>
+      </c>
+      <c r="X155" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y155" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -11852,11 +12807,17 @@
       <c r="V156" s="1">
         <v>0</v>
       </c>
-      <c r="W156" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W156" s="5">
+        <v>3</v>
+      </c>
+      <c r="X156" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y156" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -11924,11 +12885,17 @@
       <c r="V157" s="1">
         <v>1</v>
       </c>
-      <c r="W157" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W157" s="5">
+        <v>2</v>
+      </c>
+      <c r="X157" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y157" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -11996,11 +12963,17 @@
       <c r="V158" s="1">
         <v>1</v>
       </c>
-      <c r="W158" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W158" s="5">
+        <v>1</v>
+      </c>
+      <c r="X158" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y158" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -12068,11 +13041,17 @@
       <c r="V159" s="1">
         <v>1</v>
       </c>
-      <c r="W159" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W159" s="5">
+        <v>1</v>
+      </c>
+      <c r="X159" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y159" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -12140,11 +13119,17 @@
       <c r="V160" s="1">
         <v>1</v>
       </c>
-      <c r="W160" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W160" s="5">
+        <v>1</v>
+      </c>
+      <c r="X160" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y160" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -12212,11 +13197,17 @@
       <c r="V161" s="1">
         <v>0</v>
       </c>
-      <c r="W161" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W161" s="5">
+        <v>3</v>
+      </c>
+      <c r="X161" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y161" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -12284,11 +13275,17 @@
       <c r="V162" s="1">
         <v>0</v>
       </c>
-      <c r="W162" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W162" s="5">
+        <v>4</v>
+      </c>
+      <c r="X162" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y162" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -12356,11 +13353,17 @@
       <c r="V163" s="1">
         <v>0</v>
       </c>
-      <c r="W163" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W163" s="5">
+        <v>3</v>
+      </c>
+      <c r="X163" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y163" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -12428,11 +13431,17 @@
       <c r="V164" s="1">
         <v>1</v>
       </c>
-      <c r="W164" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W164" s="5">
+        <v>2</v>
+      </c>
+      <c r="X164" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y164" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -12500,11 +13509,17 @@
       <c r="V165" s="1">
         <v>1</v>
       </c>
-      <c r="W165" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W165" s="5">
+        <v>1</v>
+      </c>
+      <c r="X165" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y165" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -12572,11 +13587,17 @@
       <c r="V166" s="1">
         <v>1</v>
       </c>
-      <c r="W166" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W166" s="5">
+        <v>1</v>
+      </c>
+      <c r="X166" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y166" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -12644,11 +13665,17 @@
       <c r="V167" s="1">
         <v>0</v>
       </c>
-      <c r="W167" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W167" s="5">
+        <v>4</v>
+      </c>
+      <c r="X167" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y167" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -12716,11 +13743,17 @@
       <c r="V168" s="1">
         <v>1</v>
       </c>
-      <c r="W168" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W168" s="5">
+        <v>2</v>
+      </c>
+      <c r="X168" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y168" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -12788,11 +13821,17 @@
       <c r="V169" s="1">
         <v>0</v>
       </c>
-      <c r="W169" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W169" s="5">
+        <v>4</v>
+      </c>
+      <c r="X169" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y169" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -12860,11 +13899,17 @@
       <c r="V170" s="1">
         <v>0</v>
       </c>
-      <c r="W170" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W170" s="5">
+        <v>3</v>
+      </c>
+      <c r="X170" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y170" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -12932,11 +13977,17 @@
       <c r="V171" s="1">
         <v>0</v>
       </c>
-      <c r="W171" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W171" s="5">
+        <v>4</v>
+      </c>
+      <c r="X171" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y171" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -13004,11 +14055,17 @@
       <c r="V172" s="1">
         <v>1</v>
       </c>
-      <c r="W172" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W172" s="5">
+        <v>2</v>
+      </c>
+      <c r="X172" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y172" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -13076,11 +14133,17 @@
       <c r="V173" s="1">
         <v>0</v>
       </c>
-      <c r="W173" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W173" s="5">
+        <v>3</v>
+      </c>
+      <c r="X173" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y173" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -13148,11 +14211,17 @@
       <c r="V174" s="1">
         <v>0</v>
       </c>
-      <c r="W174" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W174" s="5">
+        <v>3</v>
+      </c>
+      <c r="X174" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y174" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -13220,11 +14289,17 @@
       <c r="V175" s="1">
         <v>1</v>
       </c>
-      <c r="W175" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W175" s="5">
+        <v>1</v>
+      </c>
+      <c r="X175" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y175" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -13292,11 +14367,17 @@
       <c r="V176" s="1">
         <v>1</v>
       </c>
-      <c r="W176" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W176" s="5">
+        <v>1</v>
+      </c>
+      <c r="X176" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y176" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -13364,11 +14445,17 @@
       <c r="V177" s="1">
         <v>0</v>
       </c>
-      <c r="W177" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W177" s="5">
+        <v>4</v>
+      </c>
+      <c r="X177" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y177" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -13436,11 +14523,17 @@
       <c r="V178" s="1">
         <v>1</v>
       </c>
-      <c r="W178" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W178" s="5">
+        <v>2</v>
+      </c>
+      <c r="X178" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y178" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -13508,11 +14601,17 @@
       <c r="V179" s="1">
         <v>0</v>
       </c>
-      <c r="W179" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W179" s="5">
+        <v>3</v>
+      </c>
+      <c r="X179" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y179" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -13580,11 +14679,17 @@
       <c r="V180" s="1">
         <v>1</v>
       </c>
-      <c r="W180" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W180" s="5">
+        <v>2</v>
+      </c>
+      <c r="X180" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y180" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -13652,11 +14757,17 @@
       <c r="V181" s="1">
         <v>0</v>
       </c>
-      <c r="W181" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W181" s="5">
+        <v>3</v>
+      </c>
+      <c r="X181" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y181" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -13724,11 +14835,17 @@
       <c r="V182" s="1">
         <v>1</v>
       </c>
-      <c r="W182" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W182" s="5">
+        <v>1</v>
+      </c>
+      <c r="X182" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y182" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -13796,11 +14913,17 @@
       <c r="V183" s="1">
         <v>1</v>
       </c>
-      <c r="W183" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W183" s="5">
+        <v>1</v>
+      </c>
+      <c r="X183" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y183" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -13868,11 +14991,17 @@
       <c r="V184" s="1">
         <v>0</v>
       </c>
-      <c r="W184" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W184" s="5">
+        <v>3</v>
+      </c>
+      <c r="X184" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y184" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -13940,11 +15069,17 @@
       <c r="V185" s="1">
         <v>1</v>
       </c>
-      <c r="W185" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W185" s="5">
+        <v>1</v>
+      </c>
+      <c r="X185" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y185" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -14012,11 +15147,17 @@
       <c r="V186" s="1">
         <v>1</v>
       </c>
-      <c r="W186" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W186" s="5">
+        <v>1</v>
+      </c>
+      <c r="X186" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y186" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -14084,11 +15225,17 @@
       <c r="V187" s="1">
         <v>1</v>
       </c>
-      <c r="W187" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W187" s="5">
+        <v>1</v>
+      </c>
+      <c r="X187" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y187" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -14156,11 +15303,17 @@
       <c r="V188" s="1">
         <v>0</v>
       </c>
-      <c r="W188" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W188" s="5">
+        <v>4</v>
+      </c>
+      <c r="X188" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y188" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -14228,11 +15381,17 @@
       <c r="V189" s="1">
         <v>0</v>
       </c>
-      <c r="W189" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W189" s="5">
+        <v>3</v>
+      </c>
+      <c r="X189" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y189" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -14300,11 +15459,17 @@
       <c r="V190" s="1">
         <v>1</v>
       </c>
-      <c r="W190" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W190" s="5">
+        <v>2</v>
+      </c>
+      <c r="X190" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y190" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -14372,11 +15537,17 @@
       <c r="V191" s="1">
         <v>1</v>
       </c>
-      <c r="W191" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W191" s="5">
+        <v>1</v>
+      </c>
+      <c r="X191" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y191" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -14444,11 +15615,17 @@
       <c r="V192" s="1">
         <v>1</v>
       </c>
-      <c r="W192" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W192" s="5">
+        <v>2</v>
+      </c>
+      <c r="X192" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y192" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -14516,11 +15693,17 @@
       <c r="V193" s="1">
         <v>0</v>
       </c>
-      <c r="W193" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W193" s="5">
+        <v>3</v>
+      </c>
+      <c r="X193" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y193" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -14588,11 +15771,17 @@
       <c r="V194" s="1">
         <v>1</v>
       </c>
-      <c r="W194" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W194" s="5">
+        <v>2</v>
+      </c>
+      <c r="X194" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y194" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -14660,11 +15849,17 @@
       <c r="V195" s="1">
         <v>0</v>
       </c>
-      <c r="W195" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W195" s="5">
+        <v>4</v>
+      </c>
+      <c r="X195" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y195" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -14732,11 +15927,17 @@
       <c r="V196" s="1">
         <v>1</v>
       </c>
-      <c r="W196" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W196" s="5">
+        <v>1</v>
+      </c>
+      <c r="X196" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y196" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -14804,11 +16005,17 @@
       <c r="V197" s="1">
         <v>1</v>
       </c>
-      <c r="W197" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W197" s="5">
+        <v>1</v>
+      </c>
+      <c r="X197" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y197" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -14876,11 +16083,17 @@
       <c r="V198" s="1">
         <v>0</v>
       </c>
-      <c r="W198" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W198" s="5">
+        <v>4</v>
+      </c>
+      <c r="X198" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y198" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -14948,11 +16161,17 @@
       <c r="V199" s="1">
         <v>1</v>
       </c>
-      <c r="W199" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W199" s="5">
+        <v>1</v>
+      </c>
+      <c r="X199" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y199" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -15020,11 +16239,17 @@
       <c r="V200" s="1">
         <v>0</v>
       </c>
-      <c r="W200" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W200" s="5">
+        <v>4</v>
+      </c>
+      <c r="X200" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y200" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -15092,11 +16317,17 @@
       <c r="V201" s="1">
         <v>1</v>
       </c>
-      <c r="W201" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W201" s="5">
+        <v>2</v>
+      </c>
+      <c r="X201" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y201" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -15164,11 +16395,17 @@
       <c r="V202" s="1">
         <v>1</v>
       </c>
-      <c r="W202" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W202" s="5">
+        <v>2</v>
+      </c>
+      <c r="X202" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y202" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -15236,11 +16473,17 @@
       <c r="V203" s="1">
         <v>0</v>
       </c>
-      <c r="W203" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W203" s="5">
+        <v>4</v>
+      </c>
+      <c r="X203" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y203" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -15308,11 +16551,17 @@
       <c r="V204" s="1">
         <v>1</v>
       </c>
-      <c r="W204" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W204" s="5">
+        <v>1</v>
+      </c>
+      <c r="X204" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y204" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -15380,11 +16629,17 @@
       <c r="V205" s="1">
         <v>1</v>
       </c>
-      <c r="W205" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W205" s="5">
+        <v>2</v>
+      </c>
+      <c r="X205" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y205" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -15452,11 +16707,17 @@
       <c r="V206" s="1">
         <v>1</v>
       </c>
-      <c r="W206" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W206" s="5">
+        <v>2</v>
+      </c>
+      <c r="X206" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y206" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -15524,11 +16785,17 @@
       <c r="V207" s="1">
         <v>1</v>
       </c>
-      <c r="W207" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W207" s="5">
+        <v>1</v>
+      </c>
+      <c r="X207" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y207" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -15596,11 +16863,17 @@
       <c r="V208" s="1">
         <v>1</v>
       </c>
-      <c r="W208" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W208" s="5">
+        <v>2</v>
+      </c>
+      <c r="X208" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y208" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -15668,11 +16941,17 @@
       <c r="V209" s="1">
         <v>1</v>
       </c>
-      <c r="W209" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W209" s="5">
+        <v>2</v>
+      </c>
+      <c r="X209" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y209" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -15740,11 +17019,17 @@
       <c r="V210" s="1">
         <v>0</v>
       </c>
-      <c r="W210" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W210" s="5">
+        <v>4</v>
+      </c>
+      <c r="X210" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y210" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -15812,11 +17097,17 @@
       <c r="V211" s="1">
         <v>0</v>
       </c>
-      <c r="W211" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W211" s="5">
+        <v>4</v>
+      </c>
+      <c r="X211" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y211" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -15884,11 +17175,17 @@
       <c r="V212" s="1">
         <v>0</v>
       </c>
-      <c r="W212" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W212" s="5">
+        <v>3</v>
+      </c>
+      <c r="X212" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y212" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -15956,11 +17253,17 @@
       <c r="V213" s="1">
         <v>1</v>
       </c>
-      <c r="W213" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W213" s="5">
+        <v>2</v>
+      </c>
+      <c r="X213" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y213" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -16028,11 +17331,17 @@
       <c r="V214" s="1">
         <v>0</v>
       </c>
-      <c r="W214" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W214" s="5">
+        <v>3</v>
+      </c>
+      <c r="X214" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y214" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -16100,11 +17409,17 @@
       <c r="V215" s="1">
         <v>0</v>
       </c>
-      <c r="W215" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W215" s="5">
+        <v>3</v>
+      </c>
+      <c r="X215" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y215" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -16172,11 +17487,17 @@
       <c r="V216" s="1">
         <v>0</v>
       </c>
-      <c r="W216" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W216" s="5">
+        <v>4</v>
+      </c>
+      <c r="X216" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y216" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -16244,11 +17565,17 @@
       <c r="V217" s="1">
         <v>0</v>
       </c>
-      <c r="W217" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W217" s="5">
+        <v>4</v>
+      </c>
+      <c r="X217" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y217" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -16316,11 +17643,17 @@
       <c r="V218" s="1">
         <v>1</v>
       </c>
-      <c r="W218" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W218" s="5">
+        <v>2</v>
+      </c>
+      <c r="X218" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y218" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -16388,11 +17721,17 @@
       <c r="V219" s="1">
         <v>1</v>
       </c>
-      <c r="W219" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W219" s="5">
+        <v>1</v>
+      </c>
+      <c r="X219" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y219" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -16460,11 +17799,17 @@
       <c r="V220" s="1">
         <v>0</v>
       </c>
-      <c r="W220" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W220" s="5">
+        <v>3</v>
+      </c>
+      <c r="X220" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y220" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -16532,11 +17877,17 @@
       <c r="V221" s="1">
         <v>1</v>
       </c>
-      <c r="W221" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W221" s="5">
+        <v>2</v>
+      </c>
+      <c r="X221" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y221" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -16604,11 +17955,17 @@
       <c r="V222" s="1">
         <v>0</v>
       </c>
-      <c r="W222" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W222" s="5">
+        <v>4</v>
+      </c>
+      <c r="X222" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y222" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -16676,11 +18033,17 @@
       <c r="V223" s="1">
         <v>1</v>
       </c>
-      <c r="W223" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W223" s="5">
+        <v>1</v>
+      </c>
+      <c r="X223" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y223" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -16748,11 +18111,17 @@
       <c r="V224" s="1">
         <v>1</v>
       </c>
-      <c r="W224" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W224" s="5">
+        <v>1</v>
+      </c>
+      <c r="X224" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y224" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -16820,11 +18189,17 @@
       <c r="V225" s="1">
         <v>1</v>
       </c>
-      <c r="W225" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W225" s="5">
+        <v>2</v>
+      </c>
+      <c r="X225" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y225" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -16892,11 +18267,17 @@
       <c r="V226" s="1">
         <v>0</v>
       </c>
-      <c r="W226" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W226" s="5">
+        <v>3</v>
+      </c>
+      <c r="X226" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y226" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -16964,11 +18345,17 @@
       <c r="V227" s="1">
         <v>1</v>
       </c>
-      <c r="W227" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W227" s="5">
+        <v>2</v>
+      </c>
+      <c r="X227" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y227" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -17036,11 +18423,17 @@
       <c r="V228" s="1">
         <v>1</v>
       </c>
-      <c r="W228" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W228" s="5">
+        <v>2</v>
+      </c>
+      <c r="X228" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y228" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -17108,11 +18501,17 @@
       <c r="V229" s="1">
         <v>1</v>
       </c>
-      <c r="W229" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W229" s="5">
+        <v>1</v>
+      </c>
+      <c r="X229" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y229" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -17180,11 +18579,17 @@
       <c r="V230" s="1">
         <v>0</v>
       </c>
-      <c r="W230" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W230" s="5">
+        <v>4</v>
+      </c>
+      <c r="X230" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y230" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -17252,11 +18657,17 @@
       <c r="V231" s="1">
         <v>1</v>
       </c>
-      <c r="W231" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W231" s="5">
+        <v>1</v>
+      </c>
+      <c r="X231" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y231" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -17324,11 +18735,17 @@
       <c r="V232" s="1">
         <v>1</v>
       </c>
-      <c r="W232" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W232" s="5">
+        <v>1</v>
+      </c>
+      <c r="X232" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y232" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -17396,11 +18813,17 @@
       <c r="V233" s="1">
         <v>0</v>
       </c>
-      <c r="W233" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W233" s="5">
+        <v>3</v>
+      </c>
+      <c r="X233" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y233" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -17468,11 +18891,17 @@
       <c r="V234" s="1">
         <v>0</v>
       </c>
-      <c r="W234" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W234" s="5">
+        <v>4</v>
+      </c>
+      <c r="X234" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y234" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -17540,11 +18969,17 @@
       <c r="V235" s="1">
         <v>0</v>
       </c>
-      <c r="W235" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W235" s="5">
+        <v>4</v>
+      </c>
+      <c r="X235" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y235" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -17612,11 +19047,17 @@
       <c r="V236" s="1">
         <v>1</v>
       </c>
-      <c r="W236" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W236" s="5">
+        <v>1</v>
+      </c>
+      <c r="X236" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y236" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -17684,11 +19125,17 @@
       <c r="V237" s="1">
         <v>1</v>
       </c>
-      <c r="W237" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W237" s="5">
+        <v>1</v>
+      </c>
+      <c r="X237" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y237" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -17756,11 +19203,17 @@
       <c r="V238" s="1">
         <v>0</v>
       </c>
-      <c r="W238" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W238" s="5">
+        <v>3</v>
+      </c>
+      <c r="X238" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y238" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -17828,11 +19281,17 @@
       <c r="V239" s="1">
         <v>0</v>
       </c>
-      <c r="W239" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W239" s="5">
+        <v>4</v>
+      </c>
+      <c r="X239" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y239" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -17900,11 +19359,17 @@
       <c r="V240" s="1">
         <v>1</v>
       </c>
-      <c r="W240" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W240" s="5">
+        <v>1</v>
+      </c>
+      <c r="X240" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y240" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -17972,11 +19437,17 @@
       <c r="V241" s="1">
         <v>0</v>
       </c>
-      <c r="W241" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W241" s="5">
+        <v>3</v>
+      </c>
+      <c r="X241" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y241" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -18044,11 +19515,17 @@
       <c r="V242" s="1">
         <v>0</v>
       </c>
-      <c r="W242" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W242" s="5">
+        <v>4</v>
+      </c>
+      <c r="X242" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y242" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -18116,11 +19593,17 @@
       <c r="V243" s="1">
         <v>1</v>
       </c>
-      <c r="W243" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W243" s="5">
+        <v>2</v>
+      </c>
+      <c r="X243" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y243" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -18188,11 +19671,17 @@
       <c r="V244" s="1">
         <v>0</v>
       </c>
-      <c r="W244" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W244" s="5">
+        <v>4</v>
+      </c>
+      <c r="X244" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y244" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -18260,11 +19749,17 @@
       <c r="V245" s="1">
         <v>0</v>
       </c>
-      <c r="W245" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W245" s="5">
+        <v>3</v>
+      </c>
+      <c r="X245" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y245" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -18332,11 +19827,17 @@
       <c r="V246" s="1">
         <v>1</v>
       </c>
-      <c r="W246" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W246" s="5">
+        <v>2</v>
+      </c>
+      <c r="X246" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y246" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -18404,11 +19905,17 @@
       <c r="V247" s="1">
         <v>1</v>
       </c>
-      <c r="W247" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W247" s="5">
+        <v>2</v>
+      </c>
+      <c r="X247" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y247" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -18476,11 +19983,17 @@
       <c r="V248" s="1">
         <v>1</v>
       </c>
-      <c r="W248" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W248" s="5">
+        <v>2</v>
+      </c>
+      <c r="X248" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y248" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -18548,11 +20061,17 @@
       <c r="V249" s="1">
         <v>1</v>
       </c>
-      <c r="W249" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W249" s="5">
+        <v>2</v>
+      </c>
+      <c r="X249" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y249" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -18620,11 +20139,17 @@
       <c r="V250" s="1">
         <v>0</v>
       </c>
-      <c r="W250" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W250" s="5">
+        <v>4</v>
+      </c>
+      <c r="X250" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y250" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -18692,11 +20217,17 @@
       <c r="V251" s="1">
         <v>0</v>
       </c>
-      <c r="W251" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W251" s="5">
+        <v>3</v>
+      </c>
+      <c r="X251" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y251" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -18764,11 +20295,17 @@
       <c r="V252" s="1">
         <v>1</v>
       </c>
-      <c r="W252" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W252" s="5">
+        <v>2</v>
+      </c>
+      <c r="X252" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y252" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -18836,11 +20373,17 @@
       <c r="V253" s="1">
         <v>1</v>
       </c>
-      <c r="W253" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W253" s="5">
+        <v>2</v>
+      </c>
+      <c r="X253" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y253" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -18908,11 +20451,17 @@
       <c r="V254" s="1">
         <v>0</v>
       </c>
-      <c r="W254" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W254" s="5">
+        <v>3</v>
+      </c>
+      <c r="X254" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y254" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -18980,11 +20529,17 @@
       <c r="V255" s="1">
         <v>1</v>
       </c>
-      <c r="W255" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W255" s="5">
+        <v>2</v>
+      </c>
+      <c r="X255" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y255" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -19052,11 +20607,17 @@
       <c r="V256" s="1">
         <v>0</v>
       </c>
-      <c r="W256" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W256" s="5">
+        <v>3</v>
+      </c>
+      <c r="X256" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y256" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -19124,11 +20685,17 @@
       <c r="V257" s="1">
         <v>1</v>
       </c>
-      <c r="W257" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W257" s="5">
+        <v>2</v>
+      </c>
+      <c r="X257" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y257" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -19196,11 +20763,17 @@
       <c r="V258" s="1">
         <v>0</v>
       </c>
-      <c r="W258" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W258" s="5">
+        <v>3</v>
+      </c>
+      <c r="X258" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y258" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -19268,11 +20841,17 @@
       <c r="V259" s="1">
         <v>0</v>
       </c>
-      <c r="W259" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W259" s="5">
+        <v>3</v>
+      </c>
+      <c r="X259" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y259" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -19340,11 +20919,17 @@
       <c r="V260" s="1">
         <v>1</v>
       </c>
-      <c r="W260" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W260" s="5">
+        <v>1</v>
+      </c>
+      <c r="X260" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y260" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -19412,11 +20997,17 @@
       <c r="V261" s="1">
         <v>1</v>
       </c>
-      <c r="W261" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W261" s="5">
+        <v>2</v>
+      </c>
+      <c r="X261" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y261" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -19484,11 +21075,17 @@
       <c r="V262" s="1">
         <v>1</v>
       </c>
-      <c r="W262" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W262" s="5">
+        <v>2</v>
+      </c>
+      <c r="X262" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y262" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -19556,11 +21153,17 @@
       <c r="V263" s="1">
         <v>1</v>
       </c>
-      <c r="W263" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W263" s="5">
+        <v>2</v>
+      </c>
+      <c r="X263" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y263" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -19628,11 +21231,17 @@
       <c r="V264" s="1">
         <v>0</v>
       </c>
-      <c r="W264" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W264" s="5">
+        <v>4</v>
+      </c>
+      <c r="X264" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y264" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -19700,11 +21309,17 @@
       <c r="V265" s="1">
         <v>1</v>
       </c>
-      <c r="W265" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W265" s="5">
+        <v>1</v>
+      </c>
+      <c r="X265" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y265" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -19772,11 +21387,17 @@
       <c r="V266" s="1">
         <v>1</v>
       </c>
-      <c r="W266" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W266" s="5">
+        <v>2</v>
+      </c>
+      <c r="X266" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y266" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -19844,11 +21465,17 @@
       <c r="V267" s="1">
         <v>0</v>
       </c>
-      <c r="W267" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W267" s="5">
+        <v>3</v>
+      </c>
+      <c r="X267" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y267" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -19916,11 +21543,17 @@
       <c r="V268" s="1">
         <v>1</v>
       </c>
-      <c r="W268" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W268" s="5">
+        <v>2</v>
+      </c>
+      <c r="X268" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y268" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -19988,11 +21621,17 @@
       <c r="V269" s="1">
         <v>1</v>
       </c>
-      <c r="W269" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W269" s="5">
+        <v>2</v>
+      </c>
+      <c r="X269" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y269" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -20060,11 +21699,17 @@
       <c r="V270" s="1">
         <v>1</v>
       </c>
-      <c r="W270" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W270" s="5">
+        <v>1</v>
+      </c>
+      <c r="X270" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y270" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="271" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -20132,11 +21777,17 @@
       <c r="V271" s="1">
         <v>1</v>
       </c>
-      <c r="W271" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W271" s="5">
+        <v>2</v>
+      </c>
+      <c r="X271" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y271" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -20204,11 +21855,17 @@
       <c r="V272" s="1">
         <v>1</v>
       </c>
-      <c r="W272" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W272" s="5">
+        <v>1</v>
+      </c>
+      <c r="X272" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y272" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="273" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -20276,11 +21933,17 @@
       <c r="V273" s="1">
         <v>0</v>
       </c>
-      <c r="W273" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W273" s="5">
+        <v>4</v>
+      </c>
+      <c r="X273" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y273" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="274" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -20348,11 +22011,17 @@
       <c r="V274" s="1">
         <v>1</v>
       </c>
-      <c r="W274" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W274" s="5">
+        <v>1</v>
+      </c>
+      <c r="X274" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y274" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="275" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -20420,11 +22089,17 @@
       <c r="V275" s="1">
         <v>0</v>
       </c>
-      <c r="W275" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W275" s="5">
+        <v>3</v>
+      </c>
+      <c r="X275" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y275" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="276" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -20492,11 +22167,17 @@
       <c r="V276" s="1">
         <v>1</v>
       </c>
-      <c r="W276" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W276" s="5">
+        <v>2</v>
+      </c>
+      <c r="X276" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y276" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -20564,11 +22245,17 @@
       <c r="V277" s="1">
         <v>1</v>
       </c>
-      <c r="W277" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W277" s="5">
+        <v>2</v>
+      </c>
+      <c r="X277" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y277" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="278" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -20636,11 +22323,17 @@
       <c r="V278" s="1">
         <v>1</v>
       </c>
-      <c r="W278" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W278" s="5">
+        <v>1</v>
+      </c>
+      <c r="X278" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y278" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -20708,11 +22401,17 @@
       <c r="V279" s="1">
         <v>0</v>
       </c>
-      <c r="W279" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W279" s="5">
+        <v>4</v>
+      </c>
+      <c r="X279" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y279" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -20780,11 +22479,17 @@
       <c r="V280" s="1">
         <v>1</v>
       </c>
-      <c r="W280" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W280" s="5">
+        <v>1</v>
+      </c>
+      <c r="X280" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y280" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -20852,11 +22557,17 @@
       <c r="V281" s="1">
         <v>0</v>
       </c>
-      <c r="W281" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W281" s="5">
+        <v>3</v>
+      </c>
+      <c r="X281" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y281" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -20924,11 +22635,17 @@
       <c r="V282" s="1">
         <v>0</v>
       </c>
-      <c r="W282" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W282" s="5">
+        <v>4</v>
+      </c>
+      <c r="X282" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y282" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -20996,11 +22713,17 @@
       <c r="V283" s="1">
         <v>0</v>
       </c>
-      <c r="W283" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W283" s="5">
+        <v>3</v>
+      </c>
+      <c r="X283" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y283" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="284" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -21068,11 +22791,17 @@
       <c r="V284" s="1">
         <v>0</v>
       </c>
-      <c r="W284" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W284" s="5">
+        <v>4</v>
+      </c>
+      <c r="X284" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y284" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="285" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -21140,11 +22869,17 @@
       <c r="V285" s="1">
         <v>1</v>
       </c>
-      <c r="W285" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W285" s="5">
+        <v>1</v>
+      </c>
+      <c r="X285" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y285" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -21212,16 +22947,18 @@
       <c r="V286" s="1">
         <v>1</v>
       </c>
-      <c r="W286" s="1">
-        <v>1</v>
+      <c r="W286" s="5">
+        <v>1</v>
+      </c>
+      <c r="X286" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y286" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P286" xr:uid="{635402A8-EA80-DC4F-B160-AB1A802D8230}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P286">
-      <sortCondition ref="A1:A286"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:Y286" xr:uid="{635402A8-EA80-DC4F-B160-AB1A802D8230}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>